--- a/Submit/Team_10_Week_9_181107_TheVeil/Game Feedback.xlsx
+++ b/Submit/Team_10_Week_9_181107_TheVeil/Game Feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>No.</t>
   </si>
@@ -207,6 +207,15 @@
   <si>
     <t>old version
 the veil</t>
+  </si>
+  <si>
+    <t>Found a couple of bugs when using unconventional ways around the monsters to use the platforms to teleport, i.e the top of the platform with the monster who charges at Raven (Rowan)</t>
+  </si>
+  <si>
+    <t>Raven can jump to the end point at the start without using any platforms (Blake)</t>
+  </si>
+  <si>
+    <t>Platforms can be used from the side, making Raven teleport into the tiles (Rob)</t>
   </si>
 </sst>
 </file>
@@ -749,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,6 +1415,39 @@
       </c>
       <c r="C50" s="6">
         <v>43399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="6">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="6">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="6">
+        <v>43412</v>
       </c>
     </row>
   </sheetData>
